--- a/InputData/hydgn/FIoHP/Fuel Intensity of Hydrogen Production.xlsx
+++ b/InputData/hydgn/FIoHP/Fuel Intensity of Hydrogen Production.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\hydgn\FDpUHP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\hydgn\FIoHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB66B27F-3AD4-4107-B94C-BA7B8A4BD79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769FC27A-0F30-47A7-847D-C77CEECA095F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32625" yWindow="2040" windowWidth="24900" windowHeight="14490" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="57">
   <si>
     <t>Sources:</t>
   </si>
@@ -209,13 +209,19 @@
   <si>
     <t>FIoHP Fuel Intensity of Hydrogen Production</t>
   </si>
+  <si>
+    <t>green hydrogen</t>
+  </si>
+  <si>
+    <t>low carbon hydrogen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -287,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -308,13 +314,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -598,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -744,10 +745,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2270,6 +2271,220 @@
       </c>
       <c r="AI11" s="12">
         <f>'FIoHP-ng-reforming'!AI11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
+        <v>0</v>
+      </c>
+      <c r="T12" s="12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="12">
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
+        <v>0</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0</v>
+      </c>
+      <c r="T13" s="12">
+        <v>0</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0</v>
+      </c>
+      <c r="V13" s="12">
+        <v>0</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0</v>
+      </c>
+      <c r="X13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2602,10 +2817,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3825,6 +4040,220 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
+        <v>0</v>
+      </c>
+      <c r="T12" s="12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="12">
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
+        <v>0</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0</v>
+      </c>
+      <c r="T13" s="12">
+        <v>0</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0</v>
+      </c>
+      <c r="V13" s="12">
+        <v>0</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0</v>
+      </c>
+      <c r="X13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="12">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3835,10 +4264,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AI11"/>
+      <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4263,83 +4692,83 @@
         <v>1.3728813559322033</v>
       </c>
       <c r="P4" s="13">
-        <f>O4</f>
+        <f t="shared" ref="P4:AI4" si="2">O4</f>
         <v>1.3728813559322033</v>
       </c>
       <c r="Q4" s="12">
-        <f>P4</f>
+        <f t="shared" si="2"/>
         <v>1.3728813559322033</v>
       </c>
       <c r="R4" s="12">
-        <f>Q4</f>
+        <f t="shared" si="2"/>
         <v>1.3728813559322033</v>
       </c>
       <c r="S4" s="12">
-        <f>R4</f>
+        <f t="shared" si="2"/>
         <v>1.3728813559322033</v>
       </c>
       <c r="T4" s="12">
-        <f>S4</f>
+        <f t="shared" si="2"/>
         <v>1.3728813559322033</v>
       </c>
       <c r="U4" s="12">
-        <f>T4</f>
+        <f t="shared" si="2"/>
         <v>1.3728813559322033</v>
       </c>
       <c r="V4" s="12">
-        <f>U4</f>
+        <f t="shared" si="2"/>
         <v>1.3728813559322033</v>
       </c>
       <c r="W4" s="12">
-        <f>V4</f>
+        <f t="shared" si="2"/>
         <v>1.3728813559322033</v>
       </c>
       <c r="X4" s="12">
-        <f>W4</f>
+        <f t="shared" si="2"/>
         <v>1.3728813559322033</v>
       </c>
       <c r="Y4" s="12">
-        <f>X4</f>
+        <f t="shared" si="2"/>
         <v>1.3728813559322033</v>
       </c>
       <c r="Z4" s="12">
-        <f>Y4</f>
+        <f t="shared" si="2"/>
         <v>1.3728813559322033</v>
       </c>
       <c r="AA4" s="12">
-        <f>Z4</f>
+        <f t="shared" si="2"/>
         <v>1.3728813559322033</v>
       </c>
       <c r="AB4" s="12">
-        <f>AA4</f>
+        <f t="shared" si="2"/>
         <v>1.3728813559322033</v>
       </c>
       <c r="AC4" s="12">
-        <f>AB4</f>
+        <f t="shared" si="2"/>
         <v>1.3728813559322033</v>
       </c>
       <c r="AD4" s="12">
-        <f>AC4</f>
+        <f t="shared" si="2"/>
         <v>1.3728813559322033</v>
       </c>
       <c r="AE4" s="12">
-        <f>AD4</f>
+        <f t="shared" si="2"/>
         <v>1.3728813559322033</v>
       </c>
       <c r="AF4" s="12">
-        <f>AE4</f>
+        <f t="shared" si="2"/>
         <v>1.3728813559322033</v>
       </c>
       <c r="AG4" s="12">
-        <f>AF4</f>
+        <f t="shared" si="2"/>
         <v>1.3728813559322033</v>
       </c>
       <c r="AH4" s="12">
-        <f>AG4</f>
+        <f t="shared" si="2"/>
         <v>1.3728813559322033</v>
       </c>
       <c r="AI4" s="12">
-        <f>AH4</f>
+        <f t="shared" si="2"/>
         <v>1.3728813559322033</v>
       </c>
     </row>
@@ -5089,6 +5518,220 @@
         <v>0</v>
       </c>
       <c r="AI11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
+        <v>0</v>
+      </c>
+      <c r="T12" s="12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="12">
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
+        <v>0</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0</v>
+      </c>
+      <c r="T13" s="12">
+        <v>0</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0</v>
+      </c>
+      <c r="V13" s="12">
+        <v>0</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0</v>
+      </c>
+      <c r="X13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="12">
         <v>0</v>
       </c>
     </row>
@@ -5102,1275 +5745,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AI11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="30.1796875" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="5">
-        <v>2017</v>
-      </c>
-      <c r="C1">
-        <v>2018</v>
-      </c>
-      <c r="D1" s="5">
-        <v>2019</v>
-      </c>
-      <c r="E1">
-        <v>2020</v>
-      </c>
-      <c r="F1" s="5">
-        <v>2021</v>
-      </c>
-      <c r="G1">
-        <v>2022</v>
-      </c>
-      <c r="H1" s="5">
-        <v>2023</v>
-      </c>
-      <c r="I1">
-        <v>2024</v>
-      </c>
-      <c r="J1" s="5">
-        <v>2025</v>
-      </c>
-      <c r="K1">
-        <v>2026</v>
-      </c>
-      <c r="L1" s="5">
-        <v>2027</v>
-      </c>
-      <c r="M1">
-        <v>2028</v>
-      </c>
-      <c r="N1" s="5">
-        <v>2029</v>
-      </c>
-      <c r="O1">
-        <v>2030</v>
-      </c>
-      <c r="P1" s="11">
-        <v>2031</v>
-      </c>
-      <c r="Q1">
-        <v>2032</v>
-      </c>
-      <c r="R1" s="5">
-        <v>2033</v>
-      </c>
-      <c r="S1">
-        <v>2034</v>
-      </c>
-      <c r="T1" s="5">
-        <v>2035</v>
-      </c>
-      <c r="U1">
-        <v>2036</v>
-      </c>
-      <c r="V1" s="5">
-        <v>2037</v>
-      </c>
-      <c r="W1">
-        <v>2038</v>
-      </c>
-      <c r="X1" s="5">
-        <v>2039</v>
-      </c>
-      <c r="Y1">
-        <v>2040</v>
-      </c>
-      <c r="Z1" s="5">
-        <v>2041</v>
-      </c>
-      <c r="AA1">
-        <v>2042</v>
-      </c>
-      <c r="AB1" s="5">
-        <v>2043</v>
-      </c>
-      <c r="AC1">
-        <v>2044</v>
-      </c>
-      <c r="AD1" s="5">
-        <v>2045</v>
-      </c>
-      <c r="AE1">
-        <v>2046</v>
-      </c>
-      <c r="AF1" s="5">
-        <v>2047</v>
-      </c>
-      <c r="AG1">
-        <v>2048</v>
-      </c>
-      <c r="AH1" s="5">
-        <v>2049</v>
-      </c>
-      <c r="AI1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="12">
-        <f>6/118</f>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="C2" s="12">
-        <f>B2</f>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="D2" s="12">
-        <f t="shared" ref="D2:AI2" si="0">C2</f>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="E2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="F2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="G2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="H2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="I2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="J2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="K2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="L2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="M2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="N2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="O2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="P2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="Q2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="R2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="S2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="T2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="U2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="V2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="W2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="X2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="Y2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="Z2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="AA2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="AB2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="AC2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="AD2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="AE2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="AF2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="AG2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="AH2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="AI2" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="12">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12">
-        <v>0</v>
-      </c>
-      <c r="O3" s="12">
-        <v>0</v>
-      </c>
-      <c r="P3" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>0</v>
-      </c>
-      <c r="R3" s="12">
-        <v>0</v>
-      </c>
-      <c r="S3" s="12">
-        <v>0</v>
-      </c>
-      <c r="T3" s="12">
-        <v>0</v>
-      </c>
-      <c r="U3" s="12">
-        <v>0</v>
-      </c>
-      <c r="V3" s="12">
-        <v>0</v>
-      </c>
-      <c r="W3" s="12">
-        <v>0</v>
-      </c>
-      <c r="X3" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="12">
-        <f>201/118</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="C4" s="12">
-        <f>B4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="D4" s="12">
-        <f t="shared" ref="D4:O4" si="1">C4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="E4" s="12">
-        <f t="shared" si="1"/>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="F4" s="12">
-        <f t="shared" si="1"/>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="G4" s="12">
-        <f t="shared" si="1"/>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="H4" s="12">
-        <f t="shared" si="1"/>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="I4" s="12">
-        <f t="shared" si="1"/>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="J4" s="12">
-        <f t="shared" si="1"/>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="K4" s="12">
-        <f t="shared" si="1"/>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="L4" s="12">
-        <f t="shared" si="1"/>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="M4" s="12">
-        <f t="shared" si="1"/>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="N4" s="12">
-        <f t="shared" si="1"/>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="O4" s="12">
-        <f t="shared" si="1"/>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="P4" s="13">
-        <f>O4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="Q4" s="12">
-        <f>P4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="R4" s="12">
-        <f>Q4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="S4" s="12">
-        <f>R4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="T4" s="12">
-        <f>S4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="U4" s="12">
-        <f>T4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="V4" s="12">
-        <f>U4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="W4" s="12">
-        <f>V4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="X4" s="12">
-        <f>W4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="Y4" s="12">
-        <f>X4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="Z4" s="12">
-        <f>Y4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="AA4" s="12">
-        <f>Z4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="AB4" s="12">
-        <f>AA4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="AC4" s="12">
-        <f>AB4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="AD4" s="12">
-        <f>AC4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="AE4" s="12">
-        <f>AD4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="AF4" s="12">
-        <f>AE4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="AG4" s="12">
-        <f>AF4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="AH4" s="12">
-        <f>AG4</f>
-        <v>1.7033898305084745</v>
-      </c>
-      <c r="AI4" s="12">
-        <f>AH4</f>
-        <v>1.7033898305084745</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="12">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
-      <c r="O5" s="12">
-        <v>0</v>
-      </c>
-      <c r="P5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>0</v>
-      </c>
-      <c r="R5" s="12">
-        <v>0</v>
-      </c>
-      <c r="S5" s="12">
-        <v>0</v>
-      </c>
-      <c r="T5" s="12">
-        <v>0</v>
-      </c>
-      <c r="U5" s="12">
-        <v>0</v>
-      </c>
-      <c r="V5" s="12">
-        <v>0</v>
-      </c>
-      <c r="W5" s="12">
-        <v>0</v>
-      </c>
-      <c r="X5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="12">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12">
-        <v>0</v>
-      </c>
-      <c r="O6" s="12">
-        <v>0</v>
-      </c>
-      <c r="P6" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>0</v>
-      </c>
-      <c r="R6" s="12">
-        <v>0</v>
-      </c>
-      <c r="S6" s="12">
-        <v>0</v>
-      </c>
-      <c r="T6" s="12">
-        <v>0</v>
-      </c>
-      <c r="U6" s="12">
-        <v>0</v>
-      </c>
-      <c r="V6" s="12">
-        <v>0</v>
-      </c>
-      <c r="W6" s="12">
-        <v>0</v>
-      </c>
-      <c r="X6" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="12">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12">
-        <v>0</v>
-      </c>
-      <c r="O7" s="12">
-        <v>0</v>
-      </c>
-      <c r="P7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>0</v>
-      </c>
-      <c r="R7" s="12">
-        <v>0</v>
-      </c>
-      <c r="S7" s="12">
-        <v>0</v>
-      </c>
-      <c r="T7" s="12">
-        <v>0</v>
-      </c>
-      <c r="U7" s="12">
-        <v>0</v>
-      </c>
-      <c r="V7" s="12">
-        <v>0</v>
-      </c>
-      <c r="W7" s="12">
-        <v>0</v>
-      </c>
-      <c r="X7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="12">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12">
-        <v>0</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12">
-        <v>0</v>
-      </c>
-      <c r="O8" s="12">
-        <v>0</v>
-      </c>
-      <c r="P8" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>0</v>
-      </c>
-      <c r="R8" s="12">
-        <v>0</v>
-      </c>
-      <c r="S8" s="12">
-        <v>0</v>
-      </c>
-      <c r="T8" s="12">
-        <v>0</v>
-      </c>
-      <c r="U8" s="12">
-        <v>0</v>
-      </c>
-      <c r="V8" s="12">
-        <v>0</v>
-      </c>
-      <c r="W8" s="12">
-        <v>0</v>
-      </c>
-      <c r="X8" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="12">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-      <c r="K9" s="12">
-        <v>0</v>
-      </c>
-      <c r="L9" s="12">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
-      <c r="O9" s="12">
-        <v>0</v>
-      </c>
-      <c r="P9" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>0</v>
-      </c>
-      <c r="R9" s="12">
-        <v>0</v>
-      </c>
-      <c r="S9" s="12">
-        <v>0</v>
-      </c>
-      <c r="T9" s="12">
-        <v>0</v>
-      </c>
-      <c r="U9" s="12">
-        <v>0</v>
-      </c>
-      <c r="V9" s="12">
-        <v>0</v>
-      </c>
-      <c r="W9" s="12">
-        <v>0</v>
-      </c>
-      <c r="X9" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="12">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-      <c r="L10" s="12">
-        <v>0</v>
-      </c>
-      <c r="M10" s="12">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12">
-        <v>0</v>
-      </c>
-      <c r="O10" s="12">
-        <v>0</v>
-      </c>
-      <c r="P10" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>0</v>
-      </c>
-      <c r="R10" s="12">
-        <v>0</v>
-      </c>
-      <c r="S10" s="12">
-        <v>0</v>
-      </c>
-      <c r="T10" s="12">
-        <v>0</v>
-      </c>
-      <c r="U10" s="12">
-        <v>0</v>
-      </c>
-      <c r="V10" s="12">
-        <v>0</v>
-      </c>
-      <c r="W10" s="12">
-        <v>0</v>
-      </c>
-      <c r="X10" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0</v>
-      </c>
-      <c r="M11" s="12">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
-      <c r="O11" s="12">
-        <v>0</v>
-      </c>
-      <c r="P11" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>0</v>
-      </c>
-      <c r="R11" s="12">
-        <v>0</v>
-      </c>
-      <c r="S11" s="12">
-        <v>0</v>
-      </c>
-      <c r="T11" s="12">
-        <v>0</v>
-      </c>
-      <c r="U11" s="12">
-        <v>0</v>
-      </c>
-      <c r="V11" s="12">
-        <v>0</v>
-      </c>
-      <c r="W11" s="12">
-        <v>0</v>
-      </c>
-      <c r="X11" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E065C7-B02F-4B56-B59E-C3198019CCB2}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:AI11"/>
+      <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6422,10 +5800,10 @@
       <c r="N1" s="5">
         <v>2029</v>
       </c>
-      <c r="O1" s="16">
+      <c r="O1">
         <v>2030</v>
       </c>
-      <c r="P1" s="15">
+      <c r="P1" s="11">
         <v>2031</v>
       </c>
       <c r="Q1">
@@ -6491,140 +5869,140 @@
         <v>42</v>
       </c>
       <c r="B2" s="12">
-        <f>3/118</f>
-        <v>2.5423728813559324E-2</v>
+        <f>6/118</f>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="C2" s="12">
         <f>B2</f>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="D2" s="12">
         <f t="shared" ref="D2:AI2" si="0">C2</f>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="E2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="F2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="G2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="H2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="I2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="J2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="K2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="L2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="M2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="N2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="O2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="P2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="Q2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="R2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="S2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="T2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="U2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="V2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="W2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="X2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="Y2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="Z2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="AA2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="AB2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="AC2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="AD2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="AE2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="AF2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="AG2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="AH2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="AI2" s="12">
         <f t="shared" si="0"/>
-        <v>2.5423728813559324E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
@@ -6739,140 +6117,140 @@
         <v>44</v>
       </c>
       <c r="B4" s="12">
-        <f>6/118</f>
-        <v>5.0847457627118647E-2</v>
+        <f>201/118</f>
+        <v>1.7033898305084745</v>
       </c>
       <c r="C4" s="12">
         <f>B4</f>
-        <v>5.0847457627118647E-2</v>
+        <v>1.7033898305084745</v>
       </c>
       <c r="D4" s="12">
-        <f t="shared" ref="D4:O5" si="1">C4</f>
-        <v>5.0847457627118647E-2</v>
+        <f t="shared" ref="D4:O4" si="1">C4</f>
+        <v>1.7033898305084745</v>
       </c>
       <c r="E4" s="12">
         <f t="shared" si="1"/>
-        <v>5.0847457627118647E-2</v>
+        <v>1.7033898305084745</v>
       </c>
       <c r="F4" s="12">
         <f t="shared" si="1"/>
-        <v>5.0847457627118647E-2</v>
+        <v>1.7033898305084745</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="1"/>
-        <v>5.0847457627118647E-2</v>
+        <v>1.7033898305084745</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="1"/>
-        <v>5.0847457627118647E-2</v>
+        <v>1.7033898305084745</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="1"/>
-        <v>5.0847457627118647E-2</v>
+        <v>1.7033898305084745</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="1"/>
-        <v>5.0847457627118647E-2</v>
+        <v>1.7033898305084745</v>
       </c>
       <c r="K4" s="12">
         <f t="shared" si="1"/>
-        <v>5.0847457627118647E-2</v>
+        <v>1.7033898305084745</v>
       </c>
       <c r="L4" s="12">
         <f t="shared" si="1"/>
-        <v>5.0847457627118647E-2</v>
+        <v>1.7033898305084745</v>
       </c>
       <c r="M4" s="12">
         <f t="shared" si="1"/>
-        <v>5.0847457627118647E-2</v>
+        <v>1.7033898305084745</v>
       </c>
       <c r="N4" s="12">
         <f t="shared" si="1"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="O4" s="14">
+        <v>1.7033898305084745</v>
+      </c>
+      <c r="O4" s="12">
         <f t="shared" si="1"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="P4" s="14">
-        <f>O4</f>
-        <v>5.0847457627118647E-2</v>
+        <v>1.7033898305084745</v>
+      </c>
+      <c r="P4" s="13">
+        <f t="shared" ref="P4:AI4" si="2">O4</f>
+        <v>1.7033898305084745</v>
       </c>
       <c r="Q4" s="12">
-        <f>P4</f>
-        <v>5.0847457627118647E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7033898305084745</v>
       </c>
       <c r="R4" s="12">
-        <f>Q4</f>
-        <v>5.0847457627118647E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7033898305084745</v>
       </c>
       <c r="S4" s="12">
-        <f>R4</f>
-        <v>5.0847457627118647E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7033898305084745</v>
       </c>
       <c r="T4" s="12">
-        <f>S4</f>
-        <v>5.0847457627118647E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7033898305084745</v>
       </c>
       <c r="U4" s="12">
-        <f>T4</f>
-        <v>5.0847457627118647E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7033898305084745</v>
       </c>
       <c r="V4" s="12">
-        <f>U4</f>
-        <v>5.0847457627118647E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7033898305084745</v>
       </c>
       <c r="W4" s="12">
-        <f>V4</f>
-        <v>5.0847457627118647E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7033898305084745</v>
       </c>
       <c r="X4" s="12">
-        <f>W4</f>
-        <v>5.0847457627118647E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7033898305084745</v>
       </c>
       <c r="Y4" s="12">
-        <f>X4</f>
-        <v>5.0847457627118647E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7033898305084745</v>
       </c>
       <c r="Z4" s="12">
-        <f>Y4</f>
-        <v>5.0847457627118647E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7033898305084745</v>
       </c>
       <c r="AA4" s="12">
-        <f>Z4</f>
-        <v>5.0847457627118647E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7033898305084745</v>
       </c>
       <c r="AB4" s="12">
-        <f>AA4</f>
-        <v>5.0847457627118647E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7033898305084745</v>
       </c>
       <c r="AC4" s="12">
-        <f>AB4</f>
-        <v>5.0847457627118647E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7033898305084745</v>
       </c>
       <c r="AD4" s="12">
-        <f>AC4</f>
-        <v>5.0847457627118647E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7033898305084745</v>
       </c>
       <c r="AE4" s="12">
-        <f>AD4</f>
-        <v>5.0847457627118647E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7033898305084745</v>
       </c>
       <c r="AF4" s="12">
-        <f>AE4</f>
-        <v>5.0847457627118647E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7033898305084745</v>
       </c>
       <c r="AG4" s="12">
-        <f>AF4</f>
-        <v>5.0847457627118647E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7033898305084745</v>
       </c>
       <c r="AH4" s="12">
-        <f>AG4</f>
-        <v>5.0847457627118647E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7033898305084745</v>
       </c>
       <c r="AI4" s="12">
-        <f>AH4</f>
-        <v>5.0847457627118647E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7033898305084745</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
@@ -6880,140 +6258,106 @@
         <v>45</v>
       </c>
       <c r="B5" s="12">
-        <f>246/118</f>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="C5" s="12">
-        <f>B5</f>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="D5" s="12">
-        <f t="shared" si="1"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="E5" s="12">
-        <f t="shared" si="1"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="F5" s="12">
-        <f t="shared" si="1"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" si="1"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="H5" s="12">
-        <f t="shared" si="1"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="I5" s="12">
-        <f t="shared" si="1"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="J5" s="12">
-        <f t="shared" si="1"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" si="1"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="L5" s="12">
-        <f t="shared" si="1"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="M5" s="12">
-        <f t="shared" si="1"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="N5" s="12">
-        <f t="shared" si="1"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" si="1"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="P5" s="12">
-        <f t="shared" ref="P5:AI5" si="2">O5</f>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="R5" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="T5" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="U5" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="V5" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="X5" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="12">
-        <f t="shared" si="2"/>
-        <v>2.0847457627118646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.35">
@@ -7655,6 +6999,220 @@
         <v>0</v>
       </c>
       <c r="AI11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
+        <v>0</v>
+      </c>
+      <c r="T12" s="12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="12">
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
+        <v>0</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0</v>
+      </c>
+      <c r="T13" s="12">
+        <v>0</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0</v>
+      </c>
+      <c r="V13" s="12">
+        <v>0</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0</v>
+      </c>
+      <c r="X13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="12">
         <v>0</v>
       </c>
     </row>
@@ -7663,15 +7221,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCC0A04-8CB8-478A-B79C-DF072960428D}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E065C7-B02F-4B56-B59E-C3198019CCB2}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7723,10 +7281,10 @@
       <c r="N1" s="5">
         <v>2029</v>
       </c>
-      <c r="O1" s="16">
+      <c r="O1">
         <v>2030</v>
       </c>
-      <c r="P1" s="15">
+      <c r="P1" s="5">
         <v>2031</v>
       </c>
       <c r="Q1">
@@ -7792,139 +7350,140 @@
         <v>42</v>
       </c>
       <c r="B2" s="12">
-        <v>0</v>
+        <f>3/118</f>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="C2" s="12">
         <f>B2</f>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="D2" s="12">
         <f t="shared" ref="D2:AI2" si="0">C2</f>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="E2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="F2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="G2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="H2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="I2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="J2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="K2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="L2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="M2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="N2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="O2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="P2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="Q2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="R2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="S2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="T2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="U2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="V2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="W2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="X2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="Y2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="Z2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="AA2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="AB2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="AC2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="AD2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="AE2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="AF2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="AG2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="AH2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
       <c r="AI2" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5423728813559324E-2</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
@@ -8039,139 +7598,140 @@
         <v>44</v>
       </c>
       <c r="B4" s="12">
-        <v>0</v>
+        <f>6/118</f>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="C4" s="12">
         <f>B4</f>
-        <v>0</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="D4" s="12">
-        <f t="shared" ref="D4:S5" si="1">C4</f>
-        <v>0</v>
+        <f t="shared" ref="D4:O5" si="1">C4</f>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="E4" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="F4" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="K4" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="L4" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="M4" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="N4" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="14">
+        <v>5.0847457627118647E-2</v>
+      </c>
+      <c r="O4" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="14">
-        <f>O4</f>
-        <v>0</v>
+        <v>5.0847457627118647E-2</v>
+      </c>
+      <c r="P4" s="12">
+        <f t="shared" ref="P4:AI4" si="2">O4</f>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="Q4" s="12">
-        <f>P4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="R4" s="12">
-        <f>Q4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="S4" s="12">
-        <f>R4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="T4" s="12">
-        <f>S4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="U4" s="12">
-        <f>T4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="V4" s="12">
-        <f>U4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="W4" s="12">
-        <f>V4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="X4" s="12">
-        <f>W4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="Y4" s="12">
-        <f>X4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="Z4" s="12">
-        <f>Y4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="AA4" s="12">
-        <f>Z4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="AB4" s="12">
-        <f>AA4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="AC4" s="12">
-        <f>AB4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="AD4" s="12">
-        <f>AC4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="AE4" s="12">
-        <f>AD4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="AF4" s="12">
-        <f>AE4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="AG4" s="12">
-        <f>AF4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="AH4" s="12">
-        <f>AG4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="AI4" s="12">
-        <f>AH4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0847457627118647E-2</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
@@ -8179,139 +7739,140 @@
         <v>45</v>
       </c>
       <c r="B5" s="12">
-        <v>0</v>
+        <f>246/118</f>
+        <v>2.0847457627118646</v>
       </c>
       <c r="C5" s="12">
         <f>B5</f>
-        <v>0</v>
+        <v>2.0847457627118646</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0847457627118646</v>
       </c>
       <c r="E5" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0847457627118646</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0847457627118646</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0847457627118646</v>
       </c>
       <c r="H5" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0847457627118646</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0847457627118646</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0847457627118646</v>
       </c>
       <c r="K5" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0847457627118646</v>
       </c>
       <c r="L5" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0847457627118646</v>
       </c>
       <c r="M5" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0847457627118646</v>
       </c>
       <c r="N5" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0847457627118646</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0847457627118646</v>
       </c>
       <c r="P5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="P5:AI5" si="3">O5</f>
+        <v>2.0847457627118646</v>
       </c>
       <c r="Q5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.0847457627118646</v>
       </c>
       <c r="R5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.0847457627118646</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.0847457627118646</v>
       </c>
       <c r="T5" s="12">
-        <f t="shared" ref="T5:AI5" si="2">S5</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.0847457627118646</v>
       </c>
       <c r="U5" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.0847457627118646</v>
       </c>
       <c r="V5" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.0847457627118646</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.0847457627118646</v>
       </c>
       <c r="X5" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.0847457627118646</v>
       </c>
       <c r="Y5" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.0847457627118646</v>
       </c>
       <c r="Z5" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.0847457627118646</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.0847457627118646</v>
       </c>
       <c r="AB5" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.0847457627118646</v>
       </c>
       <c r="AC5" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.0847457627118646</v>
       </c>
       <c r="AD5" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.0847457627118646</v>
       </c>
       <c r="AE5" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.0847457627118646</v>
       </c>
       <c r="AF5" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.0847457627118646</v>
       </c>
       <c r="AG5" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.0847457627118646</v>
       </c>
       <c r="AH5" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.0847457627118646</v>
       </c>
       <c r="AI5" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.0847457627118646</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.35">
@@ -8640,140 +8201,106 @@
         <v>49</v>
       </c>
       <c r="B9" s="12">
-        <f>1/POX!B5</f>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="C9" s="12">
-        <f>B9</f>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="D9" s="12">
-        <f t="shared" ref="D9:AI9" si="3">C9</f>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="E9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="H9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="I9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="J9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="K9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="L9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="M9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="N9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="O9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="P9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="R9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="S9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="T9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="U9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="V9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="W9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="X9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4814814814814814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
@@ -8987,6 +8514,220 @@
         <v>0</v>
       </c>
       <c r="AI11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
+        <v>0</v>
+      </c>
+      <c r="T12" s="12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="12">
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
+        <v>0</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0</v>
+      </c>
+      <c r="T13" s="12">
+        <v>0</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0</v>
+      </c>
+      <c r="V13" s="12">
+        <v>0</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0</v>
+      </c>
+      <c r="X13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="12">
         <v>0</v>
       </c>
     </row>
@@ -8995,15 +8736,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19778CD-545B-41E8-81F2-24D0122839B5}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCC0A04-8CB8-478A-B79C-DF072960428D}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9055,10 +8796,10 @@
       <c r="N1" s="5">
         <v>2029</v>
       </c>
-      <c r="O1" s="16">
+      <c r="O1">
         <v>2030</v>
       </c>
-      <c r="P1" s="15">
+      <c r="P1" s="5">
         <v>2031</v>
       </c>
       <c r="Q1">
@@ -9124,6 +8865,1552 @@
         <v>42</v>
       </c>
       <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <f t="shared" ref="D2:AI2" si="0">C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12">
+        <v>0</v>
+      </c>
+      <c r="S3" s="12">
+        <v>0</v>
+      </c>
+      <c r="T3" s="12">
+        <v>0</v>
+      </c>
+      <c r="U3" s="12">
+        <v>0</v>
+      </c>
+      <c r="V3" s="12">
+        <v>0</v>
+      </c>
+      <c r="W3" s="12">
+        <v>0</v>
+      </c>
+      <c r="X3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <f t="shared" ref="D4:S5" si="1">C4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="12">
+        <f t="shared" ref="P4:AI4" si="2">O4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <f>B5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="12">
+        <f t="shared" ref="T5:AI5" si="3">S5</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>0</v>
+      </c>
+      <c r="R6" s="12">
+        <v>0</v>
+      </c>
+      <c r="S6" s="12">
+        <v>0</v>
+      </c>
+      <c r="T6" s="12">
+        <v>0</v>
+      </c>
+      <c r="U6" s="12">
+        <v>0</v>
+      </c>
+      <c r="V6" s="12">
+        <v>0</v>
+      </c>
+      <c r="W6" s="12">
+        <v>0</v>
+      </c>
+      <c r="X6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12">
+        <v>0</v>
+      </c>
+      <c r="S7" s="12">
+        <v>0</v>
+      </c>
+      <c r="T7" s="12">
+        <v>0</v>
+      </c>
+      <c r="U7" s="12">
+        <v>0</v>
+      </c>
+      <c r="V7" s="12">
+        <v>0</v>
+      </c>
+      <c r="W7" s="12">
+        <v>0</v>
+      </c>
+      <c r="X7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12">
+        <v>0</v>
+      </c>
+      <c r="T8" s="12">
+        <v>0</v>
+      </c>
+      <c r="U8" s="12">
+        <v>0</v>
+      </c>
+      <c r="V8" s="12">
+        <v>0</v>
+      </c>
+      <c r="W8" s="12">
+        <v>0</v>
+      </c>
+      <c r="X8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="12">
+        <f>1/POX!B5</f>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="C9" s="12">
+        <f>B9</f>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" ref="D9:AI9" si="4">C9</f>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="M9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="N9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="O9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="P9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="Q9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="R9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="S9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="T9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="U9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="V9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="W9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="X9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="Y9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="Z9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="AA9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="AB9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="AC9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="AD9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="AE9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="AF9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="AG9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="AH9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="AI9" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4814814814814814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>0</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12">
+        <v>0</v>
+      </c>
+      <c r="T10" s="12">
+        <v>0</v>
+      </c>
+      <c r="U10" s="12">
+        <v>0</v>
+      </c>
+      <c r="V10" s="12">
+        <v>0</v>
+      </c>
+      <c r="W10" s="12">
+        <v>0</v>
+      </c>
+      <c r="X10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>0</v>
+      </c>
+      <c r="R11" s="12">
+        <v>0</v>
+      </c>
+      <c r="S11" s="12">
+        <v>0</v>
+      </c>
+      <c r="T11" s="12">
+        <v>0</v>
+      </c>
+      <c r="U11" s="12">
+        <v>0</v>
+      </c>
+      <c r="V11" s="12">
+        <v>0</v>
+      </c>
+      <c r="W11" s="12">
+        <v>0</v>
+      </c>
+      <c r="X11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
+        <v>0</v>
+      </c>
+      <c r="T12" s="12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="12">
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
+        <v>0</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0</v>
+      </c>
+      <c r="T13" s="12">
+        <v>0</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0</v>
+      </c>
+      <c r="V13" s="12">
+        <v>0</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0</v>
+      </c>
+      <c r="X13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19778CD-545B-41E8-81F2-24D0122839B5}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:AI13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.1796875" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C1">
+        <v>2018</v>
+      </c>
+      <c r="D1" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E1">
+        <v>2020</v>
+      </c>
+      <c r="F1" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G1">
+        <v>2022</v>
+      </c>
+      <c r="H1" s="5">
+        <v>2023</v>
+      </c>
+      <c r="I1">
+        <v>2024</v>
+      </c>
+      <c r="J1" s="5">
+        <v>2025</v>
+      </c>
+      <c r="K1">
+        <v>2026</v>
+      </c>
+      <c r="L1" s="5">
+        <v>2027</v>
+      </c>
+      <c r="M1">
+        <v>2028</v>
+      </c>
+      <c r="N1" s="5">
+        <v>2029</v>
+      </c>
+      <c r="O1">
+        <v>2030</v>
+      </c>
+      <c r="P1" s="5">
+        <v>2031</v>
+      </c>
+      <c r="Q1">
+        <v>2032</v>
+      </c>
+      <c r="R1" s="5">
+        <v>2033</v>
+      </c>
+      <c r="S1">
+        <v>2034</v>
+      </c>
+      <c r="T1" s="5">
+        <v>2035</v>
+      </c>
+      <c r="U1">
+        <v>2036</v>
+      </c>
+      <c r="V1" s="5">
+        <v>2037</v>
+      </c>
+      <c r="W1">
+        <v>2038</v>
+      </c>
+      <c r="X1" s="5">
+        <v>2039</v>
+      </c>
+      <c r="Y1">
+        <v>2040</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>2041</v>
+      </c>
+      <c r="AA1">
+        <v>2042</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>2043</v>
+      </c>
+      <c r="AC1">
+        <v>2044</v>
+      </c>
+      <c r="AD1" s="5">
+        <v>2045</v>
+      </c>
+      <c r="AE1">
+        <v>2046</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>2047</v>
+      </c>
+      <c r="AG1">
+        <v>2048</v>
+      </c>
+      <c r="AH1" s="5">
+        <v>2049</v>
+      </c>
+      <c r="AI1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="12">
         <f>'FIoHP-electrolysis'!B2</f>
         <v>1.4915254237288136</v>
       </c>
@@ -9422,88 +10709,88 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O4" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="14">
-        <f>O4</f>
+      <c r="O4" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="12">
+        <f t="shared" ref="P4:AI4" si="1">O4</f>
         <v>0</v>
       </c>
       <c r="Q4" s="12">
-        <f>P4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R4" s="12">
-        <f>Q4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S4" s="12">
-        <f>R4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T4" s="12">
-        <f>S4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U4" s="12">
-        <f>T4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V4" s="12">
-        <f>U4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W4" s="12">
-        <f>V4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X4" s="12">
-        <f>W4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y4" s="12">
-        <f>X4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z4" s="12">
-        <f>Y4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA4" s="12">
-        <f>Z4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB4" s="12">
-        <f>AA4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC4" s="12">
-        <f>AB4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD4" s="12">
-        <f>AC4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE4" s="12">
-        <f>AD4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF4" s="12">
-        <f>AE4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG4" s="12">
-        <f>AF4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH4" s="12">
-        <f>AG4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI4" s="12">
-        <f>AH4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9583,67 +10870,67 @@
         <v>0</v>
       </c>
       <c r="T5" s="12">
-        <f t="shared" ref="T5:AI5" si="1">S5</f>
+        <f t="shared" ref="T5:AI5" si="2">S5</f>
         <v>0</v>
       </c>
       <c r="U5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9980,131 +11267,131 @@
         <v>0</v>
       </c>
       <c r="D9" s="12">
-        <f t="shared" ref="D9:AI9" si="2">C9</f>
+        <f t="shared" ref="D9:AI9" si="3">C9</f>
         <v>0</v>
       </c>
       <c r="E9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10319,6 +11606,220 @@
         <v>0</v>
       </c>
       <c r="AI11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
+        <v>0</v>
+      </c>
+      <c r="T12" s="12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="12">
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
+        <v>0</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0</v>
+      </c>
+      <c r="T13" s="12">
+        <v>0</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0</v>
+      </c>
+      <c r="V13" s="12">
+        <v>0</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0</v>
+      </c>
+      <c r="X13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="12">
         <v>0</v>
       </c>
     </row>
